--- a/NFLStats/Aggregates/DL_aggregate.xlsx
+++ b/NFLStats/Aggregates/DL_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1860,6 +1860,654 @@
         <v>4.111111111111114</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Denico Autry</t>
+        </is>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="n">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>10.33333333333333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Denico Autry</t>
+        </is>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>11.66666666666667</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>Denico Autry</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>-3.333333333333336</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>1.333333333333332</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Foley Fatukasi</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Foley Fatukasi</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Foley Fatukasi</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>-14.33333333333334</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>-5.333333333333332</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>John Franklin-Myers</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>10.33333333333333</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>John Franklin-Myers</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>20.66666666666667</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>John Franklin-Myers</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>5.999999999999998</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>9.666666666666668</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Montravius Adams</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>1.444444444444444</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>4.888888888888889</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>5.777777777777778</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Montravius Adams</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>10.66666666666667</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Montravius Adams</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>-0.7777777777777778</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>5.777777777777777</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>4.888888888888888</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Quinnen Williams</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>45.33333333333334</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>17.66666666666667</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Quinnen Williams</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>18.33333333333333</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Quinnen Williams</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>5.333333333333332</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>0.6666666666666643</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Daron Payne</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>31.33333333333333</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>25.66666666666667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Daron Payne</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>28.66666666666667</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>24.33333333333333</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Daron Payne</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>-2.666666666666664</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>-1.333333333333336</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Joanathan Allen</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>64.33333333333333</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>37.66666666666666</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>26.66666666666667</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Joanathan Allen</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>45.66666666666666</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>15.66666666666667</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Joanathan Allen</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>-18.66666666666666</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>-7.666666666666664</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Tim Settle</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>9.333333333333334</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Tim Settle</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Tim Settle</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>5.999999999999998</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>5.333333333333332</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>Rakeem Nunez-Rochws</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>9.666666666666666</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Rakeem Nunez-Rochws</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>21.33333333333333</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>Rakeem Nunez-Rochws</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>21.66666666666666</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>11.66666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
